--- a/data_base/prueba.xlsx
+++ b/data_base/prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Proyectos_python\mass_emails_whatsapp\data_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Proyectos_terminados\mass_emails_whatsapp\data_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D2DEF-616C-4EE7-A452-3732FE3D0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316300A7-938C-4857-A520-B56B09B76504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="6">
   <si>
     <t>celular</t>
   </si>
   <si>
     <t>mensaje</t>
-  </si>
-  <si>
-    <t>+573208796168</t>
   </si>
   <si>
     <t>Encuesta EFPE Colombia
@@ -45,20 +42,20 @@
 Se aplicarán términos y condiciones, se otorgará la licencia por un mes a los ganadores.</t>
   </si>
   <si>
-    <t>+57112302180</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>573123793260</t>
+    <t>573134299363</t>
+  </si>
+  <si>
+    <t>573105770038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,9 +110,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -129,6 +123,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,61 +429,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="37.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="37.77734375" style="6" customWidth="1"/>
     <col min="3" max="3" width="125.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" ht="222.6" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="216">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="216">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="216">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="216">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="216">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="216">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="216">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="216">
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="216">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="216">
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="216">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="216">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="216">
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="216">
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="216">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="216">
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="216">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="216">
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="216">
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
